--- a/Team-Data/2013-14/3-5-2013-14.xlsx
+++ b/Team-Data/2013-14/3-5-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M2" t="n">
         <v>25.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O2" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
@@ -714,22 +781,22 @@
         <v>31.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
         <v>18.9</v>
@@ -738,13 +805,13 @@
         <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,25 +823,25 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -798,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
         <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>11.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T3" t="n">
         <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -914,25 +981,25 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.9</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -941,7 +1008,7 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -959,10 +1026,10 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
@@ -971,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>15</v>
@@ -980,13 +1047,13 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>14</v>
@@ -998,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
         <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.508</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.364</v>
+        <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S4" t="n">
         <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X4" t="n">
         <v>4</v>
@@ -1096,31 +1163,31 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1138,19 +1205,19 @@
         <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1162,10 +1229,10 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW4" t="n">
         <v>11</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>26</v>
@@ -1174,13 +1241,13 @@
         <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.459</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J5" t="n">
         <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
         <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
@@ -1284,19 +1351,19 @@
         <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1308,19 +1375,19 @@
         <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK5" t="n">
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>8</v>
@@ -1353,16 +1420,16 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
         <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
         <v>80.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1424,19 +1491,19 @@
         <v>17.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
         <v>33.1</v>
@@ -1445,13 +1512,13 @@
         <v>45.1</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V6" t="n">
         <v>15.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
@@ -1463,19 +1530,19 @@
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1541,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
         <v>30</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1696,7 +1763,7 @@
         <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1708,10 +1775,10 @@
         <v>24</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.581</v>
+        <v>0.59</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
         <v>83.59999999999999</v>
@@ -1788,25 +1855,25 @@
         <v>22.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S8" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="U8" t="n">
         <v>23.7</v>
@@ -1815,7 +1882,7 @@
         <v>13.4</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1824,40 +1891,40 @@
         <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA8" t="n">
         <v>19.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1866,13 +1933,13 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1902,10 +1969,10 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>0.433</v>
+        <v>0.424</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,10 +2025,10 @@
         <v>37.8</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L9" t="n">
         <v>8.300000000000001</v>
@@ -1970,34 +2037,34 @@
         <v>23.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.719</v>
+        <v>0.716</v>
       </c>
       <c r="R9" t="n">
         <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T9" t="n">
         <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>15.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
         <v>5.7</v>
@@ -2006,22 +2073,22 @@
         <v>5.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>23</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>21</v>
-      </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -2033,10 +2100,10 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK9" t="n">
         <v>19</v>
@@ -2048,10 +2115,10 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2066,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>15</v>
@@ -2075,10 +2142,10 @@
         <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -2122,19 +2189,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
         <v>39</v>
@@ -2146,40 +2213,40 @@
         <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.311</v>
+        <v>0.312</v>
       </c>
       <c r="O10" t="n">
         <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.669</v>
+        <v>0.668</v>
       </c>
       <c r="R10" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
@@ -2188,19 +2255,19 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2212,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>6</v>
@@ -2224,7 +2291,7 @@
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2260,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.613</v>
+        <v>0.607</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J11" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L11" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R11" t="n">
         <v>11.3</v>
@@ -2355,13 +2422,13 @@
         <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X11" t="n">
         <v>5.2</v>
@@ -2376,13 +2443,13 @@
         <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,16 +2461,16 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2412,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2457,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2507,40 +2574,40 @@
         <v>79.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L12" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.695</v>
+        <v>0.696</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U12" t="n">
         <v>20.9</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.3</v>
@@ -2552,22 +2619,22 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
         <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2579,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2609,10 +2676,10 @@
         <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>21</v>
@@ -2624,13 +2691,13 @@
         <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>46</v>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.754</v>
+        <v>0.767</v>
       </c>
       <c r="H13" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
@@ -2698,7 +2765,7 @@
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>18.5</v>
@@ -2713,10 +2780,10 @@
         <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U13" t="n">
         <v>20.4</v>
@@ -2725,10 +2792,10 @@
         <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
         <v>4.6</v>
@@ -2740,13 +2807,13 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,19 +2825,19 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" t="n">
         <v>23</v>
@@ -2779,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2800,22 +2867,22 @@
         <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2961,7 +3028,7 @@
         <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2985,7 +3052,7 @@
         <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
         <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3173,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
         <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.46</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
         <v>42.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
         <v>4.7</v>
@@ -3283,22 +3350,22 @@
         <v>19.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AB16" t="n">
         <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3355,13 +3422,13 @@
         <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>6.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>3</v>
@@ -3501,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3605,58 +3672,58 @@
         <v>7.4</v>
       </c>
       <c r="M18" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N18" t="n">
         <v>0.361</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R18" t="n">
         <v>11.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
         <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,10 +3753,10 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
         <v>27</v>
@@ -3707,16 +3774,16 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.508</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,7 +3845,7 @@
         <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.439</v>
@@ -3790,25 +3857,25 @@
         <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O19" t="n">
         <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.778</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S19" t="n">
         <v>32.8</v>
       </c>
       <c r="T19" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3826,7 +3893,7 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA19" t="n">
         <v>23.6</v>
@@ -3835,19 +3902,19 @@
         <v>106.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -3856,7 +3923,7 @@
         <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3865,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>27</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3889,10 +3956,10 @@
         <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4071,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.355</v>
+        <v>0.344</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J21" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
         <v>9</v>
@@ -4154,16 +4221,16 @@
         <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O21" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P21" t="n">
         <v>19.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
@@ -4187,37 +4254,37 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.7</v>
+        <v>97.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>13</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4262,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4271,10 +4338,10 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
         <v>23</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -4384,25 +4451,25 @@
         <v>6.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4414,13 +4481,13 @@
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,10 +4517,10 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.302</v>
+        <v>0.306</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
         <v>83</v>
@@ -4512,19 +4579,19 @@
         <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.347</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P23" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.765</v>
@@ -4533,37 +4600,37 @@
         <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T23" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4772,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4951,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4963,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP25" t="n">
         <v>11</v>
@@ -4984,10 +5051,10 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
         <v>14</v>
@@ -4999,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J26" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O26" t="n">
         <v>19.1</v>
@@ -5073,16 +5140,16 @@
         <v>23.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.824</v>
+        <v>0.823</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S26" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="T26" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="U26" t="n">
         <v>23.5</v>
@@ -5106,16 +5173,16 @@
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5127,22 +5194,22 @@
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
@@ -5166,7 +5233,7 @@
         <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5181,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -5216,70 +5283,70 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
         <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P27" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R27" t="n">
         <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V27" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z27" t="n">
         <v>23</v>
@@ -5288,13 +5355,13 @@
         <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5333,10 +5400,10 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS27" t="n">
         <v>16</v>
@@ -5348,7 +5415,7 @@
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW27" t="n">
         <v>18</v>
@@ -5366,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -5688,13 +5755,13 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
@@ -5703,7 +5770,7 @@
         <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>14</v>
@@ -5727,7 +5794,7 @@
         <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
-        <v>0.344</v>
+        <v>0.35</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5801,16 +5868,16 @@
         <v>21.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U30" t="n">
         <v>20</v>
@@ -5828,28 +5895,28 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>25</v>
@@ -5870,7 +5937,7 @@
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>24</v>
@@ -5882,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5900,10 +5967,10 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
@@ -5962,28 +6029,28 @@
         <v>38.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
@@ -5992,19 +6059,19 @@
         <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U31" t="n">
         <v>23.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W31" t="n">
         <v>8.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
@@ -6013,16 +6080,16 @@
         <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6055,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>24</v>
@@ -6064,7 +6131,7 @@
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
@@ -6073,16 +6140,16 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
         <v>14</v>
       </c>
       <c r="AW31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-5-2013-14</t>
+          <t>2014-03-05</t>
         </is>
       </c>
     </row>
